--- a/AAII_Financials/Yearly/PRBM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRBM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
   <si>
     <t>PRBM</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -924,25 +924,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -953,23 +953,23 @@
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -993,23 +993,23 @@
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -1072,25 +1072,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
+        <v>2800</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1153,25 +1153,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
+        <v>2800</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1180,25 +1180,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
+        <v>2800</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1317,23 +1317,23 @@
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1342,25 +1342,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
+        <v>2800</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1396,25 +1396,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
+        <v>2800</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -2384,7 +2384,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-11700</v>
+        <v>133500</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2470,25 +2470,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
-      </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
+        <v>2800</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2793,25 +2793,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-145200</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3"/>
     </row>
